--- a/ExcelConfig/功能对应产出表.xlsx
+++ b/ExcelConfig/功能对应产出表.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="FunctionConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,17 +59,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>炼金术2级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>练金术3级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,15 +73,6 @@
   <si>
     <t>练金术5级</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>1:5</t>
   </si>
   <si>
     <t>FunctionConfig</t>
@@ -513,27 +497,27 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -544,26 +528,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -571,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -580,7 +565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -597,7 +582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -605,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -614,74 +599,114 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+      <c r="E4" s="4" t="str">
+        <f>CONCATENATE("1:",G4)</f>
+        <v>1:2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <f>F4*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" ref="E5:E8" si="0">CONCATENATE("1:",G5)</f>
+        <v>1:4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ref="G5:G8" si="1">F5*2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1:6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1:8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1:10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
